--- a/secure/26P-Leanne.xlsx
+++ b/secure/26P-Leanne.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Léanne-570634</t>
+    <t>26P-Léanne-450677</t>
   </si>
   <si>
-    <t>26P-Léanne-1077625</t>
+    <t>26P-Léanne-379804</t>
   </si>
   <si>
-    <t>26P-Léanne-844733</t>
+    <t>26P-Léanne-469658</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fb83db4f"/>
+        <fgColor rgb="F19d5499"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HK503"/>
+  <dimension ref="A1:PX503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1039,14 +1039,11 @@
       </c>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>-0.612</v>
       </c>
       <c r="M99" s="4"/>
-      <c r="CT99" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
@@ -2308,11 +2305,14 @@
       </c>
       <c r="M309" s="4"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>0.232</v>
       </c>
       <c r="M310" s="4"/>
+      <c r="CU310" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
@@ -2566,14 +2566,11 @@
       </c>
       <c r="M352" s="4"/>
     </row>
-    <row r="353" spans="1:219" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>0.404</v>
       </c>
       <c r="M353" s="4"/>
-      <c r="HK353" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
@@ -2653,11 +2650,14 @@
       </c>
       <c r="M366" s="4"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>0.46</v>
       </c>
       <c r="M367" s="4"/>
+      <c r="BP367" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
@@ -2755,11 +2755,14 @@
       </c>
       <c r="M383" s="4"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:440" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>0.528</v>
       </c>
       <c r="M384" s="4"/>
+      <c r="PX384" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
@@ -3025,14 +3028,11 @@
       </c>
       <c r="M428" s="4"/>
     </row>
-    <row r="429" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>0.708</v>
       </c>
       <c r="M429" s="4"/>
-      <c r="CQ429" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
